--- a/legend_data.xlsx
+++ b/legend_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb578340\OneDrive - WBG\RShinyProjects\CCDR_Dashboard\CCDR-World-Bank\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldbankgroup-my.sharepoint.com/personal/shaider7_worldbank_org/Documents/RShinyProjects/CCDR_Dashboard/CCDR-World-Bank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD169998-72DE-4D2C-9A4A-58B57737D57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{AD169998-72DE-4D2C-9A4A-58B57737D57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1733D0E-5F9F-40F7-B07D-76740DDF8118}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -259,9 +259,6 @@
     <t>Tehsil Population</t>
   </si>
   <si>
-    <t>000's</t>
-  </si>
-  <si>
     <t>District population</t>
   </si>
   <si>
@@ -308,6 +305,9 @@
   </si>
   <si>
     <t>Expected damage on builtup from coastal floods (hectars)</t>
+  </si>
+  <si>
+    <t>(000's)</t>
   </si>
 </sst>
 </file>
@@ -652,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -689,13 +689,13 @@
         <v>61</v>
       </c>
       <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" t="s">
         <v>79</v>
-      </c>
-      <c r="D2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -712,7 +712,7 @@
         <v>67</v>
       </c>
       <c r="E3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -729,7 +729,7 @@
         <v>67</v>
       </c>
       <c r="E4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -760,7 +760,7 @@
         <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -794,7 +794,7 @@
         <v>67</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -828,7 +828,7 @@
         <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -842,7 +842,7 @@
         <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -859,7 +859,7 @@
         <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -873,7 +873,7 @@
         <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -890,7 +890,7 @@
         <v>67</v>
       </c>
       <c r="E14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -921,7 +921,7 @@
         <v>67</v>
       </c>
       <c r="E16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -952,7 +952,7 @@
         <v>67</v>
       </c>
       <c r="E18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -1011,7 +1011,7 @@
         <v>67</v>
       </c>
       <c r="E22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -1042,7 +1042,7 @@
         <v>67</v>
       </c>
       <c r="E24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
@@ -1053,7 +1053,7 @@
         <v>61</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D25" t="s">
         <v>67</v>
@@ -1076,7 +1076,7 @@
         <v>67</v>
       </c>
       <c r="E26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
@@ -1093,7 +1093,7 @@
         <v>67</v>
       </c>
       <c r="E27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
@@ -1104,7 +1104,7 @@
         <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D28" t="s">
         <v>67</v>

--- a/legend_data.xlsx
+++ b/legend_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldbankgroup-my.sharepoint.com/personal/shaider7_worldbank_org/Documents/RShinyProjects/CCDR_Dashboard/CCDR-World-Bank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{AD169998-72DE-4D2C-9A4A-58B57737D57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1733D0E-5F9F-40F7-B07D-76740DDF8118}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{AD169998-72DE-4D2C-9A4A-58B57737D57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCE24270-0427-4FCC-888C-4E8429A4A8F0}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -214,15 +214,9 @@
     <t>unit</t>
   </si>
   <si>
-    <t>%</t>
-  </si>
-  <si>
     <t>source</t>
   </si>
   <si>
-    <t>hectars</t>
-  </si>
-  <si>
     <t>CCDR-Pakistan</t>
   </si>
   <si>
@@ -308,6 +302,12 @@
   </si>
   <si>
     <t>(000's)</t>
+  </si>
+  <si>
+    <t>(hectars)</t>
+  </si>
+  <si>
+    <t>(%)</t>
   </si>
 </sst>
 </file>
@@ -653,7 +653,7 @@
   <dimension ref="A1:E93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -675,10 +675,10 @@
         <v>63</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -689,13 +689,13 @@
         <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -706,13 +706,13 @@
         <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -723,13 +723,13 @@
         <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -740,10 +740,10 @@
         <v>61</v>
       </c>
       <c r="D5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" t="s">
         <v>67</v>
-      </c>
-      <c r="E5" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -754,13 +754,13 @@
         <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -771,13 +771,13 @@
         <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -788,13 +788,13 @@
         <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -805,13 +805,13 @@
         <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -822,13 +822,13 @@
         <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -839,10 +839,10 @@
         <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -853,13 +853,13 @@
         <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -870,10 +870,10 @@
         <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -884,13 +884,13 @@
         <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -901,10 +901,10 @@
         <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -915,13 +915,13 @@
         <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -932,10 +932,10 @@
         <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -946,13 +946,13 @@
         <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -963,10 +963,10 @@
         <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -977,10 +977,10 @@
         <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -991,10 +991,10 @@
         <v>61</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -1005,13 +1005,13 @@
         <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -1022,10 +1022,10 @@
         <v>61</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -1036,13 +1036,13 @@
         <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="D24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
@@ -1053,13 +1053,13 @@
         <v>61</v>
       </c>
       <c r="C25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
@@ -1070,13 +1070,13 @@
         <v>61</v>
       </c>
       <c r="C26" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="D26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E26" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
@@ -1087,13 +1087,13 @@
         <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="D27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E27" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
@@ -1104,10 +1104,10 @@
         <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E28" t="s">
         <v>27</v>
@@ -1121,10 +1121,10 @@
         <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="D29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E29" t="s">
         <v>28</v>
@@ -1138,10 +1138,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="D30" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E30" t="s">
         <v>29</v>
@@ -1155,10 +1155,10 @@
         <v>62</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="D31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E31" t="s">
         <v>30</v>
@@ -1172,10 +1172,10 @@
         <v>61</v>
       </c>
       <c r="C32" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="D32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E32" t="s">
         <v>31</v>
@@ -1189,10 +1189,10 @@
         <v>62</v>
       </c>
       <c r="C33" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="D33" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E33" t="s">
         <v>32</v>
@@ -1206,10 +1206,10 @@
         <v>62</v>
       </c>
       <c r="C34" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E34" t="s">
         <v>33</v>
@@ -1223,10 +1223,10 @@
         <v>62</v>
       </c>
       <c r="C35" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="D35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E35" t="s">
         <v>34</v>
@@ -1240,10 +1240,10 @@
         <v>61</v>
       </c>
       <c r="C36" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="D36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E36" t="s">
         <v>35</v>
@@ -1257,10 +1257,10 @@
         <v>62</v>
       </c>
       <c r="C37" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="D37" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E37" t="s">
         <v>36</v>
@@ -1274,7 +1274,7 @@
         <v>61</v>
       </c>
       <c r="D38" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E38" t="s">
         <v>37</v>
@@ -1288,10 +1288,10 @@
         <v>62</v>
       </c>
       <c r="C39" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="D39" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E39" t="s">
         <v>38</v>
@@ -1305,10 +1305,10 @@
         <v>62</v>
       </c>
       <c r="C40" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="D40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E40" t="s">
         <v>39</v>
@@ -1322,10 +1322,10 @@
         <v>62</v>
       </c>
       <c r="C41" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="D41" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E41" t="s">
         <v>40</v>
@@ -1339,10 +1339,10 @@
         <v>61</v>
       </c>
       <c r="C42" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="D42" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E42" t="s">
         <v>41</v>
@@ -1356,10 +1356,10 @@
         <v>61</v>
       </c>
       <c r="C43" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="D43" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E43" t="s">
         <v>42</v>
@@ -1373,10 +1373,10 @@
         <v>61</v>
       </c>
       <c r="C44" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="D44" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E44" t="s">
         <v>43</v>
@@ -1390,10 +1390,10 @@
         <v>61</v>
       </c>
       <c r="C45" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="D45" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E45" t="s">
         <v>44</v>
@@ -1407,10 +1407,10 @@
         <v>61</v>
       </c>
       <c r="C46" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="D46" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E46" t="s">
         <v>45</v>
@@ -1424,10 +1424,10 @@
         <v>61</v>
       </c>
       <c r="C47" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="D47" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E47" t="s">
         <v>46</v>
@@ -1441,7 +1441,7 @@
         <v>62</v>
       </c>
       <c r="D48" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E48" t="s">
         <v>47</v>
@@ -1455,7 +1455,7 @@
         <v>62</v>
       </c>
       <c r="D49" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E49" t="s">
         <v>48</v>
@@ -1469,7 +1469,7 @@
         <v>61</v>
       </c>
       <c r="D50" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E50" t="s">
         <v>49</v>
@@ -1483,10 +1483,10 @@
         <v>62</v>
       </c>
       <c r="C51" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="D51" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E51" t="s">
         <v>50</v>
@@ -1500,10 +1500,10 @@
         <v>61</v>
       </c>
       <c r="C52" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="D52" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E52" t="s">
         <v>51</v>
@@ -1517,7 +1517,7 @@
         <v>62</v>
       </c>
       <c r="D53" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E53" t="s">
         <v>52</v>
@@ -1531,7 +1531,7 @@
         <v>62</v>
       </c>
       <c r="D54" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E54" t="s">
         <v>53</v>
@@ -1545,10 +1545,10 @@
         <v>61</v>
       </c>
       <c r="C55" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="D55" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E55" t="s">
         <v>54</v>
@@ -1562,10 +1562,10 @@
         <v>61</v>
       </c>
       <c r="C56" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="D56" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E56" t="s">
         <v>55</v>
@@ -1579,10 +1579,10 @@
         <v>62</v>
       </c>
       <c r="C57" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="D57" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E57" t="s">
         <v>56</v>
@@ -1596,10 +1596,10 @@
         <v>62</v>
       </c>
       <c r="C58" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="D58" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E58" t="s">
         <v>57</v>
@@ -1613,10 +1613,10 @@
         <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="D59" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E59" t="s">
         <v>58</v>
@@ -1630,10 +1630,10 @@
         <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="D60" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E60" t="s">
         <v>59</v>

--- a/legend_data.xlsx
+++ b/legend_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldbankgroup-my.sharepoint.com/personal/shaider7_worldbank_org/Documents/RShinyProjects/CCDR_Dashboard/CCDR-World-Bank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{AD169998-72DE-4D2C-9A4A-58B57737D57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCE24270-0427-4FCC-888C-4E8429A4A8F0}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{7F85CA17-6D6B-4DE8-98A7-1BD49A098296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C4A0CB3-79F2-4DB9-9442-7393A2FCF11B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="97">
   <si>
     <t>indicator</t>
   </si>
@@ -232,12 +232,6 @@
     <t>Expected damage on agricultural land from river floods (hectars)</t>
   </si>
   <si>
-    <t>Population exposed to medium or high hazard (population count)</t>
-  </si>
-  <si>
-    <t>Builtup exposed to medium or high hazard (Builtup count)</t>
-  </si>
-  <si>
     <t>Frequency of agricultural stress affecting at least 30% of arable land during Season 1 (percentage of historical period 1984-2022)</t>
   </si>
   <si>
@@ -277,12 +271,6 @@
     <t>Expected damage on agricultural land from river floods (% of ADM builtup)</t>
   </si>
   <si>
-    <t>Population exposed to medium or high hazard (% of ADM population)</t>
-  </si>
-  <si>
-    <t>Builtup exposed to medium or high hazard (% of ADM Builtup)</t>
-  </si>
-  <si>
     <t>Expected impact from heat stress (% of ADM population)</t>
   </si>
   <si>
@@ -308,6 +296,21 @@
   </si>
   <si>
     <t>(%)</t>
+  </si>
+  <si>
+    <t>(Per Sq-Km)</t>
+  </si>
+  <si>
+    <t>Population exposed to medium or high hazard - Land Slides (population count)</t>
+  </si>
+  <si>
+    <t>Population exposed to medium or high hazard - Land Slides (% of ADM population)</t>
+  </si>
+  <si>
+    <t>Builtup exposed to medium or high hazard -Land Slides (Builtup count)</t>
+  </si>
+  <si>
+    <t>Builtup exposed to medium or high hazard - Land Slides (% of ADM Builtup)</t>
   </si>
 </sst>
 </file>
@@ -652,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -689,13 +692,13 @@
         <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
         <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -706,13 +709,13 @@
         <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
         <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -723,13 +726,13 @@
         <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D4" t="s">
         <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -754,13 +757,13 @@
         <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D6" t="s">
         <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -771,7 +774,7 @@
         <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D7" t="s">
         <v>65</v>
@@ -788,13 +791,13 @@
         <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D8" t="s">
         <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -805,7 +808,7 @@
         <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D9" t="s">
         <v>65</v>
@@ -822,13 +825,13 @@
         <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D10" t="s">
         <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -842,7 +845,7 @@
         <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -853,13 +856,13 @@
         <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D12" t="s">
         <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -873,7 +876,7 @@
         <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -884,13 +887,13 @@
         <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D14" t="s">
         <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -904,7 +907,7 @@
         <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -915,13 +918,13 @@
         <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D16" t="s">
         <v>65</v>
       </c>
       <c r="E16" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -935,7 +938,7 @@
         <v>65</v>
       </c>
       <c r="E17" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -946,13 +949,13 @@
         <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D18" t="s">
         <v>65</v>
       </c>
       <c r="E18" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -966,7 +969,7 @@
         <v>65</v>
       </c>
       <c r="E19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -980,7 +983,7 @@
         <v>65</v>
       </c>
       <c r="E20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -994,7 +997,7 @@
         <v>65</v>
       </c>
       <c r="E21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -1005,13 +1008,13 @@
         <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D22" t="s">
         <v>65</v>
       </c>
       <c r="E22" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -1025,7 +1028,7 @@
         <v>65</v>
       </c>
       <c r="E23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -1036,13 +1039,13 @@
         <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D24" t="s">
         <v>65</v>
       </c>
       <c r="E24" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
@@ -1053,13 +1056,13 @@
         <v>61</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D25" t="s">
         <v>65</v>
       </c>
       <c r="E25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
@@ -1070,13 +1073,13 @@
         <v>61</v>
       </c>
       <c r="C26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D26" t="s">
         <v>65</v>
       </c>
       <c r="E26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
@@ -1087,13 +1090,13 @@
         <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D27" t="s">
         <v>65</v>
       </c>
       <c r="E27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
@@ -1104,7 +1107,7 @@
         <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D28" t="s">
         <v>65</v>
@@ -1121,7 +1124,7 @@
         <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D29" t="s">
         <v>65</v>
@@ -1138,7 +1141,7 @@
         <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D30" t="s">
         <v>65</v>
@@ -1155,7 +1158,7 @@
         <v>62</v>
       </c>
       <c r="C31" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D31" t="s">
         <v>65</v>
@@ -1172,7 +1175,7 @@
         <v>61</v>
       </c>
       <c r="C32" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D32" t="s">
         <v>65</v>
@@ -1189,7 +1192,7 @@
         <v>62</v>
       </c>
       <c r="C33" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D33" t="s">
         <v>65</v>
@@ -1206,7 +1209,7 @@
         <v>62</v>
       </c>
       <c r="C34" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D34" t="s">
         <v>65</v>
@@ -1223,7 +1226,7 @@
         <v>62</v>
       </c>
       <c r="C35" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D35" t="s">
         <v>65</v>
@@ -1240,7 +1243,7 @@
         <v>61</v>
       </c>
       <c r="C36" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D36" t="s">
         <v>65</v>
@@ -1257,7 +1260,7 @@
         <v>62</v>
       </c>
       <c r="C37" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D37" t="s">
         <v>65</v>
@@ -1273,6 +1276,9 @@
       <c r="B38" t="s">
         <v>61</v>
       </c>
+      <c r="C38" t="s">
+        <v>92</v>
+      </c>
       <c r="D38" t="s">
         <v>65</v>
       </c>
@@ -1288,7 +1294,7 @@
         <v>62</v>
       </c>
       <c r="C39" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D39" t="s">
         <v>65</v>
@@ -1305,7 +1311,7 @@
         <v>62</v>
       </c>
       <c r="C40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D40" t="s">
         <v>65</v>
@@ -1322,7 +1328,7 @@
         <v>62</v>
       </c>
       <c r="C41" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D41" t="s">
         <v>65</v>
@@ -1339,7 +1345,7 @@
         <v>61</v>
       </c>
       <c r="C42" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D42" t="s">
         <v>65</v>
@@ -1356,7 +1362,7 @@
         <v>61</v>
       </c>
       <c r="C43" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D43" t="s">
         <v>65</v>
@@ -1373,7 +1379,7 @@
         <v>61</v>
       </c>
       <c r="C44" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D44" t="s">
         <v>65</v>
@@ -1390,7 +1396,7 @@
         <v>61</v>
       </c>
       <c r="C45" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D45" t="s">
         <v>65</v>
@@ -1407,7 +1413,7 @@
         <v>61</v>
       </c>
       <c r="C46" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D46" t="s">
         <v>65</v>
@@ -1424,7 +1430,7 @@
         <v>61</v>
       </c>
       <c r="C47" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D47" t="s">
         <v>65</v>
@@ -1483,7 +1489,7 @@
         <v>62</v>
       </c>
       <c r="C51" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D51" t="s">
         <v>65</v>
@@ -1500,7 +1506,7 @@
         <v>61</v>
       </c>
       <c r="C52" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D52" t="s">
         <v>65</v>
@@ -1545,7 +1551,7 @@
         <v>61</v>
       </c>
       <c r="C55" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D55" t="s">
         <v>65</v>
@@ -1562,7 +1568,7 @@
         <v>61</v>
       </c>
       <c r="C56" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D56" t="s">
         <v>65</v>
@@ -1579,7 +1585,7 @@
         <v>62</v>
       </c>
       <c r="C57" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D57" t="s">
         <v>65</v>
@@ -1596,7 +1602,7 @@
         <v>62</v>
       </c>
       <c r="C58" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D58" t="s">
         <v>65</v>
@@ -1613,7 +1619,7 @@
         <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D59" t="s">
         <v>65</v>
@@ -1630,7 +1636,7 @@
         <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D60" t="s">
         <v>65</v>

--- a/legend_data.xlsx
+++ b/legend_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldbankgroup-my.sharepoint.com/personal/shaider7_worldbank_org/Documents/RShinyProjects/CCDR_Dashboard/CCDR-World-Bank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{7F85CA17-6D6B-4DE8-98A7-1BD49A098296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C4A0CB3-79F2-4DB9-9442-7393A2FCF11B}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{7F85CA17-6D6B-4DE8-98A7-1BD49A098296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77B656A3-7D8A-43BF-AAA8-772926F2A15B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -226,30 +226,9 @@
     <t>Expected mortality from river floods (population count)</t>
   </si>
   <si>
-    <t>Expected damage on builtup from river floods (hectars)</t>
-  </si>
-  <si>
-    <t>Expected damage on agricultural land from river floods (hectars)</t>
-  </si>
-  <si>
-    <t>Frequency of agricultural stress affecting at least 30% of arable land during Season 1 (percentage of historical period 1984-2022)</t>
-  </si>
-  <si>
-    <t>Frequency of agricultural stress affecting at least 30% of arable land during Season 2 (percentage of historical period 1984-2022)</t>
-  </si>
-  <si>
-    <t>Expected impact from heat stress (population count)</t>
-  </si>
-  <si>
-    <t>Expected increse of mortality from air pollution (population count)</t>
-  </si>
-  <si>
     <t>Tehsil Population</t>
   </si>
   <si>
-    <t>District population</t>
-  </si>
-  <si>
     <t>Expected mortality from coastal floods (population count)</t>
   </si>
   <si>
@@ -265,30 +244,12 @@
     <t>Expected mortality from river floods (% of ADM population)</t>
   </si>
   <si>
-    <t>Expected damage on builtup from river floods (% of ADM builtup)</t>
-  </si>
-  <si>
-    <t>Expected damage on agricultural land from river floods (% of ADM builtup)</t>
-  </si>
-  <si>
-    <t>Expected impact from heat stress (% of ADM population)</t>
-  </si>
-  <si>
-    <t>Expected increse of mortality from air pollution (% of ADM population)</t>
-  </si>
-  <si>
     <t>Built-up area extent (Ha)</t>
   </si>
   <si>
     <t>Agricultural land extent (Ha)</t>
   </si>
   <si>
-    <t>Expected damage on builtup from coastal floods (% of ADM builtup)</t>
-  </si>
-  <si>
-    <t>Expected damage on builtup from coastal floods (hectars)</t>
-  </si>
-  <si>
     <t>(000's)</t>
   </si>
   <si>
@@ -301,16 +262,55 @@
     <t>(Per Sq-Km)</t>
   </si>
   <si>
-    <t>Population exposed to medium or high hazard - Land Slides (population count)</t>
-  </si>
-  <si>
-    <t>Population exposed to medium or high hazard - Land Slides (% of ADM population)</t>
-  </si>
-  <si>
-    <t>Builtup exposed to medium or high hazard -Land Slides (Builtup count)</t>
-  </si>
-  <si>
-    <t>Builtup exposed to medium or high hazard - Land Slides (% of ADM Builtup)</t>
+    <t>Expected damage to built-up assets from river floods (hectares)</t>
+  </si>
+  <si>
+    <t>Expected damage to built-up assets from river floods (% of ADM built-up area)</t>
+  </si>
+  <si>
+    <t>Expected exposure of agricultural land to river floods (hectares)</t>
+  </si>
+  <si>
+    <t>Expected exposure of agricultural land to river floods (% of ADM agricultural land)</t>
+  </si>
+  <si>
+    <t>Expected damage to built-up assets from coastal floods (hectares)</t>
+  </si>
+  <si>
+    <t>Expected damage to built-up assets from coastal floods (% of ADM built-up area)</t>
+  </si>
+  <si>
+    <t>Population exposed to medium or high landslide hazard (population count)</t>
+  </si>
+  <si>
+    <t>Population exposed to medium or high landslide hazard (% of ADM population)</t>
+  </si>
+  <si>
+    <t>Built-up assets exposed to medium or high landslide hazard (Hectares)</t>
+  </si>
+  <si>
+    <t>Built-up assets exposed to medium or high landslide hazard (% of ADM built-up area)</t>
+  </si>
+  <si>
+    <t>Frequency of agricultural drought stress affecting at least 30% of arable land during Season 1/Kharif (percentage of historical period 1984-2022)</t>
+  </si>
+  <si>
+    <t>Frequency of agricultural drought stress affecting at least 30% of arable land during Season 2/Rabi (percentage of historical period 1984-2022)</t>
+  </si>
+  <si>
+    <t>Expected exposure to heat stress (population count)</t>
+  </si>
+  <si>
+    <t>Expected exposure to heat stress (% of ADM population)</t>
+  </si>
+  <si>
+    <t>Expected increase of mortality from air pollution (population count)</t>
+  </si>
+  <si>
+    <t>Expected increase of mortality from air pollution (% of ADM population)</t>
+  </si>
+  <si>
+    <t>District Population</t>
   </si>
 </sst>
 </file>
@@ -656,7 +656,7 @@
   <dimension ref="A1:E93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -692,13 +692,13 @@
         <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
         <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -709,13 +709,13 @@
         <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
         <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -726,13 +726,13 @@
         <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
         <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -757,13 +757,13 @@
         <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
         <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -774,13 +774,13 @@
         <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
         <v>65</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -791,7 +791,7 @@
         <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
         <v>65</v>
@@ -808,13 +808,13 @@
         <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
         <v>65</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -825,13 +825,13 @@
         <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D10" t="s">
         <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -845,7 +845,7 @@
         <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -856,13 +856,13 @@
         <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D12" t="s">
         <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -876,7 +876,7 @@
         <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -887,13 +887,13 @@
         <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D14" t="s">
         <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -907,7 +907,7 @@
         <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -918,13 +918,13 @@
         <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D16" t="s">
         <v>65</v>
       </c>
       <c r="E16" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -938,7 +938,7 @@
         <v>65</v>
       </c>
       <c r="E17" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -949,13 +949,13 @@
         <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D18" t="s">
         <v>65</v>
       </c>
       <c r="E18" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -969,7 +969,7 @@
         <v>65</v>
       </c>
       <c r="E19" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -983,7 +983,7 @@
         <v>65</v>
       </c>
       <c r="E20" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -997,7 +997,7 @@
         <v>65</v>
       </c>
       <c r="E21" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -1008,13 +1008,13 @@
         <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D22" t="s">
         <v>65</v>
       </c>
       <c r="E22" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -1028,7 +1028,7 @@
         <v>65</v>
       </c>
       <c r="E23" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -1039,13 +1039,13 @@
         <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D24" t="s">
         <v>65</v>
       </c>
       <c r="E24" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
@@ -1056,13 +1056,13 @@
         <v>61</v>
       </c>
       <c r="C25" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="D25" t="s">
         <v>65</v>
       </c>
       <c r="E25" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
@@ -1073,13 +1073,13 @@
         <v>61</v>
       </c>
       <c r="C26" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D26" t="s">
         <v>65</v>
       </c>
       <c r="E26" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
@@ -1090,13 +1090,13 @@
         <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D27" t="s">
         <v>65</v>
       </c>
       <c r="E27" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
@@ -1107,7 +1107,7 @@
         <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="D28" t="s">
         <v>65</v>
@@ -1124,7 +1124,7 @@
         <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D29" t="s">
         <v>65</v>
@@ -1141,7 +1141,7 @@
         <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D30" t="s">
         <v>65</v>
@@ -1158,7 +1158,7 @@
         <v>62</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D31" t="s">
         <v>65</v>
@@ -1175,7 +1175,7 @@
         <v>61</v>
       </c>
       <c r="C32" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D32" t="s">
         <v>65</v>
@@ -1192,7 +1192,7 @@
         <v>62</v>
       </c>
       <c r="C33" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D33" t="s">
         <v>65</v>
@@ -1209,7 +1209,7 @@
         <v>62</v>
       </c>
       <c r="C34" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D34" t="s">
         <v>65</v>
@@ -1226,7 +1226,7 @@
         <v>62</v>
       </c>
       <c r="C35" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D35" t="s">
         <v>65</v>
@@ -1243,7 +1243,7 @@
         <v>61</v>
       </c>
       <c r="C36" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D36" t="s">
         <v>65</v>
@@ -1260,7 +1260,7 @@
         <v>62</v>
       </c>
       <c r="C37" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D37" t="s">
         <v>65</v>
@@ -1277,7 +1277,7 @@
         <v>61</v>
       </c>
       <c r="C38" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D38" t="s">
         <v>65</v>
@@ -1294,7 +1294,7 @@
         <v>62</v>
       </c>
       <c r="C39" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D39" t="s">
         <v>65</v>
@@ -1311,7 +1311,7 @@
         <v>62</v>
       </c>
       <c r="C40" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D40" t="s">
         <v>65</v>
@@ -1328,7 +1328,7 @@
         <v>62</v>
       </c>
       <c r="C41" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D41" t="s">
         <v>65</v>
@@ -1345,7 +1345,7 @@
         <v>61</v>
       </c>
       <c r="C42" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D42" t="s">
         <v>65</v>
@@ -1362,7 +1362,7 @@
         <v>61</v>
       </c>
       <c r="C43" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D43" t="s">
         <v>65</v>
@@ -1379,7 +1379,7 @@
         <v>61</v>
       </c>
       <c r="C44" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D44" t="s">
         <v>65</v>
@@ -1396,7 +1396,7 @@
         <v>61</v>
       </c>
       <c r="C45" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D45" t="s">
         <v>65</v>
@@ -1413,7 +1413,7 @@
         <v>61</v>
       </c>
       <c r="C46" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D46" t="s">
         <v>65</v>
@@ -1430,7 +1430,7 @@
         <v>61</v>
       </c>
       <c r="C47" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D47" t="s">
         <v>65</v>
@@ -1489,7 +1489,7 @@
         <v>62</v>
       </c>
       <c r="C51" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D51" t="s">
         <v>65</v>
@@ -1506,7 +1506,7 @@
         <v>61</v>
       </c>
       <c r="C52" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D52" t="s">
         <v>65</v>
@@ -1551,7 +1551,7 @@
         <v>61</v>
       </c>
       <c r="C55" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D55" t="s">
         <v>65</v>
@@ -1568,7 +1568,7 @@
         <v>61</v>
       </c>
       <c r="C56" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D56" t="s">
         <v>65</v>
@@ -1585,7 +1585,7 @@
         <v>62</v>
       </c>
       <c r="C57" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D57" t="s">
         <v>65</v>
@@ -1602,7 +1602,7 @@
         <v>62</v>
       </c>
       <c r="C58" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D58" t="s">
         <v>65</v>
@@ -1619,7 +1619,7 @@
         <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D59" t="s">
         <v>65</v>
@@ -1636,7 +1636,7 @@
         <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D60" t="s">
         <v>65</v>
@@ -1707,6 +1707,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/legend_data.xlsx
+++ b/legend_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldbankgroup-my.sharepoint.com/personal/shaider7_worldbank_org/Documents/RShinyProjects/CCDR_Dashboard/CCDR-World-Bank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{7F85CA17-6D6B-4DE8-98A7-1BD49A098296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77B656A3-7D8A-43BF-AAA8-772926F2A15B}"/>
+  <xr:revisionPtr revIDLastSave="183" documentId="13_ncr:1_{7F85CA17-6D6B-4DE8-98A7-1BD49A098296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAF3236C-B9E7-4A95-ACB7-C2EC7D521271}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="158">
   <si>
     <t>indicator</t>
   </si>
@@ -217,9 +217,6 @@
     <t>source</t>
   </si>
   <si>
-    <t>CCDR-Pakistan</t>
-  </si>
-  <si>
     <t>indicator_1</t>
   </si>
   <si>
@@ -311,13 +308,199 @@
   </si>
   <si>
     <t>District Population</t>
+  </si>
+  <si>
+    <t>WorldPop</t>
+  </si>
+  <si>
+    <t>World Settlement Footprint</t>
+  </si>
+  <si>
+    <t>European Space Agency</t>
+  </si>
+  <si>
+    <t>Fathom</t>
+  </si>
+  <si>
+    <t>World Bank-ARUP</t>
+  </si>
+  <si>
+    <t>FAO</t>
+  </si>
+  <si>
+    <t>World Bank-GFDRR</t>
+  </si>
+  <si>
+    <t>Van Donkelaar et al.</t>
+  </si>
+  <si>
+    <t>PSLM 2014</t>
+  </si>
+  <si>
+    <t>PSLM 2019</t>
+  </si>
+  <si>
+    <t>PSLM 2014/2019</t>
+  </si>
+  <si>
+    <t>PSLM 2014/2020</t>
+  </si>
+  <si>
+    <t>UNCCD 2000-2020</t>
+  </si>
+  <si>
+    <t>Alhasan</t>
+  </si>
+  <si>
+    <t>OpenStreetMap 2022</t>
+  </si>
+  <si>
+    <t>definition</t>
+  </si>
+  <si>
+    <t>Extent of agricultural land in hectares</t>
+  </si>
+  <si>
+    <t>Extent of built-up area in hectares</t>
+  </si>
+  <si>
+    <t>Population at the district-level</t>
+  </si>
+  <si>
+    <t>Population at the tehsil-level</t>
+  </si>
+  <si>
+    <t>Expected annual population impact of river floods, measured in absolute population mortality and morbidity</t>
+  </si>
+  <si>
+    <t>Expected annual population impact of river floods, measured in relative population mortality and morbidity</t>
+  </si>
+  <si>
+    <t>Expected annual impact of river floods on built-up assets, measured in absolute damage to built-up assets</t>
+  </si>
+  <si>
+    <t>Expected annual impact of river floods on built-up assets, measured in relative damage to built-up assets</t>
+  </si>
+  <si>
+    <t>Expected annual exposure of agricultural land to river floods, measured in absolute area of arable land exposed</t>
+  </si>
+  <si>
+    <t>Expected annual exposure of agricultural land to river floods, measured in relative area of arable land exposed</t>
+  </si>
+  <si>
+    <t>Expected annual population impact of coastal floods, measured in absolute population mortality and morbidity</t>
+  </si>
+  <si>
+    <t>Expected annual impact of coastal floods on built-up assets, measured in absolute damage to built-up assets</t>
+  </si>
+  <si>
+    <t>Expected annual population impact of coastal floods, measured in relative population mortality and morbidity</t>
+  </si>
+  <si>
+    <t>Expected annual impact of coastal floods on built-up assets, measured in relative damage to built-up assets</t>
+  </si>
+  <si>
+    <t>Absolute population number living in an area with medium or high landslide hazard</t>
+  </si>
+  <si>
+    <t>Relative population living in an area with medium or high landslide hazard</t>
+  </si>
+  <si>
+    <t>Absolute built-up area extent located in an area with medium or high landslide hazard</t>
+  </si>
+  <si>
+    <t>Relative built-up area extent located in an area with medium or high landslide hazard</t>
+  </si>
+  <si>
+    <t>Proportion of years over the 1984-2022 period during which at least 30% of the admin unit was exposed to agricultural drought stress - during Kharif, the first cropping season</t>
+  </si>
+  <si>
+    <t>Proportion of years over the 1984-2022 period during which at least 30% of the admin unit was exposed to agricultural drought stress - during Rabi, the second cropping season</t>
+  </si>
+  <si>
+    <t>Expected absolute annual population exposure to heat stress with return periods of 5, 20, and 100 years</t>
+  </si>
+  <si>
+    <t>Expected relative annual population exposure to heat stress with return periods of 5, 20, and 100 years</t>
+  </si>
+  <si>
+    <t>Expected annual population impact of air pollution, measured in absolute population mortality and morbidity</t>
+  </si>
+  <si>
+    <t>Expected annual population impact of air pollution, measured in relative population mortality and morbidity</t>
+  </si>
+  <si>
+    <t>Share of population living in housing with improved roof and wall material</t>
+  </si>
+  <si>
+    <t>Share of population living within 15 minutes of a health facility</t>
+  </si>
+  <si>
+    <t>Share of population living in housing without improved roof and wall material</t>
+  </si>
+  <si>
+    <t>Share of population living more than 15 minutes away from a health facility</t>
+  </si>
+  <si>
+    <t>Share of population engaged in outdoor work</t>
+  </si>
+  <si>
+    <t>Population density</t>
+  </si>
+  <si>
+    <t>Share of population living in housing with access to electricity</t>
+  </si>
+  <si>
+    <t>Share of population living in housing without access to electricity</t>
+  </si>
+  <si>
+    <t>Share of population working in the agricultural sector</t>
+  </si>
+  <si>
+    <t>Share of population working in livestock agriculture</t>
+  </si>
+  <si>
+    <t>Share of arable land that is degraded</t>
+  </si>
+  <si>
+    <t>Health facility density</t>
+  </si>
+  <si>
+    <t>High health facility density</t>
+  </si>
+  <si>
+    <t>Low health facility density</t>
+  </si>
+  <si>
+    <t>Share of population living within 2km of a road</t>
+  </si>
+  <si>
+    <t>Share of population living further than 2km from a road</t>
+  </si>
+  <si>
+    <t>Road density</t>
+  </si>
+  <si>
+    <t>Normalized road density</t>
+  </si>
+  <si>
+    <t>Share of population living in an area with low road density</t>
+  </si>
+  <si>
+    <t>Poverty rate</t>
+  </si>
+  <si>
+    <t>Share of population living in housing with access to improved toilet facilities</t>
+  </si>
+  <si>
+    <t>Share of population living in housing without access to improved toilet facilities</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -333,13 +516,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -354,9 +549,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -653,21 +849,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E93"/>
+  <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="79.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
     <col min="5" max="5" width="108.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -681,10 +878,13 @@
         <v>64</v>
       </c>
       <c r="E1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+      <c r="F1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -692,16 +892,19 @@
         <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="E2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+      <c r="F2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -709,16 +912,19 @@
         <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+      <c r="F3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -726,16 +932,19 @@
         <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+      <c r="F4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -743,13 +952,16 @@
         <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="E5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+      <c r="F5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -757,16 +969,19 @@
         <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+      <c r="F6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -774,16 +989,19 @@
         <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="E7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+      <c r="F7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -791,16 +1009,19 @@
         <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="E8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+      <c r="F8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -808,16 +1029,19 @@
         <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="E9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+      <c r="F9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -825,16 +1049,19 @@
         <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="E10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+      <c r="F10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -842,13 +1069,16 @@
         <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+      <c r="F11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -856,16 +1086,19 @@
         <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+      <c r="F12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -873,13 +1106,16 @@
         <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+      <c r="F13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -887,16 +1123,19 @@
         <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+      <c r="F14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -904,13 +1143,16 @@
         <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="E15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+      <c r="F15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -918,16 +1160,19 @@
         <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="F16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -935,13 +1180,16 @@
         <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="E17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+      <c r="F17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -949,16 +1197,19 @@
         <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="E18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+      <c r="F18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -966,13 +1217,16 @@
         <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="E19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+      <c r="F19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -980,13 +1234,16 @@
         <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="E20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+      <c r="F20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -994,13 +1251,16 @@
         <v>61</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="E21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+      <c r="F21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1008,16 +1268,19 @@
         <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D22" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="E22" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+      <c r="F22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1025,13 +1288,16 @@
         <v>61</v>
       </c>
       <c r="D23" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="E23" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+      <c r="F23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1039,16 +1305,19 @@
         <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="E24" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+      <c r="F24" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1056,16 +1325,19 @@
         <v>61</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="E25" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+      <c r="F25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1073,16 +1345,19 @@
         <v>61</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="E26" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+      <c r="F26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1090,16 +1365,19 @@
         <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D27" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="E27" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+      <c r="F27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1107,16 +1385,19 @@
         <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D28" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="E28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1124,16 +1405,19 @@
         <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D29" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="E29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F29" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1141,16 +1425,19 @@
         <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D30" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="E30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1158,16 +1445,19 @@
         <v>62</v>
       </c>
       <c r="C31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D31" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="E31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F31" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1175,16 +1465,19 @@
         <v>61</v>
       </c>
       <c r="C32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="E32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F32" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1192,16 +1485,19 @@
         <v>62</v>
       </c>
       <c r="C33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D33" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="E33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F33" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1209,16 +1505,19 @@
         <v>62</v>
       </c>
       <c r="C34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D34" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="E34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F34" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1226,16 +1525,19 @@
         <v>62</v>
       </c>
       <c r="C35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D35" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="E35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F35" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1243,16 +1545,19 @@
         <v>61</v>
       </c>
       <c r="C36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D36" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="E36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F36" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1260,16 +1565,19 @@
         <v>62</v>
       </c>
       <c r="C37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D37" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="E37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F37" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1277,16 +1585,19 @@
         <v>61</v>
       </c>
       <c r="C38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D38" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="E38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F38" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -1294,16 +1605,19 @@
         <v>62</v>
       </c>
       <c r="C39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D39" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="E39" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F39" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -1311,16 +1625,19 @@
         <v>62</v>
       </c>
       <c r="C40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D40" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="E40" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F40" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -1328,16 +1645,19 @@
         <v>62</v>
       </c>
       <c r="C41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D41" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="E41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F41" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -1345,16 +1665,19 @@
         <v>61</v>
       </c>
       <c r="C42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D42" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="E42" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F42" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -1362,16 +1685,19 @@
         <v>61</v>
       </c>
       <c r="C43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D43" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="E43" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F43" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -1379,16 +1705,19 @@
         <v>61</v>
       </c>
       <c r="C44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D44" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="E44" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F44" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -1396,16 +1725,19 @@
         <v>61</v>
       </c>
       <c r="C45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D45" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="E45" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F45" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -1413,16 +1745,19 @@
         <v>61</v>
       </c>
       <c r="C46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D46" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="E46" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F46" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -1430,16 +1765,19 @@
         <v>61</v>
       </c>
       <c r="C47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D47" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="E47" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F47" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -1447,13 +1785,16 @@
         <v>62</v>
       </c>
       <c r="D48" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="E48" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F48" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -1461,13 +1802,16 @@
         <v>62</v>
       </c>
       <c r="D49" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="E49" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F49" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -1475,13 +1819,16 @@
         <v>61</v>
       </c>
       <c r="D50" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="E50" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F50" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -1489,16 +1836,19 @@
         <v>62</v>
       </c>
       <c r="C51" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D51" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="E51" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F51" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -1506,16 +1856,19 @@
         <v>61</v>
       </c>
       <c r="C52" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D52" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="E52" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F52" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -1523,13 +1876,16 @@
         <v>62</v>
       </c>
       <c r="D53" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="E53" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F53" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -1537,13 +1893,16 @@
         <v>62</v>
       </c>
       <c r="D54" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="E54" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F54" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -1551,16 +1910,19 @@
         <v>61</v>
       </c>
       <c r="C55" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D55" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="E55" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F55" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -1568,16 +1930,19 @@
         <v>61</v>
       </c>
       <c r="C56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D56" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="E56" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F56" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -1585,16 +1950,19 @@
         <v>62</v>
       </c>
       <c r="C57" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D57" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="E57" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F57" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -1602,16 +1970,19 @@
         <v>62</v>
       </c>
       <c r="C58" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D58" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="E58" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F58" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -1619,16 +1990,19 @@
         <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D59" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="E59" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F59" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -1636,14 +2010,17 @@
         <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D60" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="E60" t="s">
         <v>59</v>
       </c>
+      <c r="F60" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B74" s="1"/>
@@ -1706,6 +2083,7 @@
       <c r="B93" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/legend_data.xlsx
+++ b/legend_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldbankgroup-my.sharepoint.com/personal/shaider7_worldbank_org/Documents/RShinyProjects/CCDR_Dashboard/CCDR-World-Bank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="183" documentId="13_ncr:1_{7F85CA17-6D6B-4DE8-98A7-1BD49A098296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAF3236C-B9E7-4A95-ACB7-C2EC7D521271}"/>
+  <xr:revisionPtr revIDLastSave="196" documentId="13_ncr:1_{7F85CA17-6D6B-4DE8-98A7-1BD49A098296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28E28668-A145-4BC1-8BE4-0604662ED4A5}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="159">
   <si>
     <t>indicator</t>
   </si>
@@ -463,9 +463,6 @@
     <t>Share of arable land that is degraded</t>
   </si>
   <si>
-    <t>Health facility density</t>
-  </si>
-  <si>
     <t>High health facility density</t>
   </si>
   <si>
@@ -478,12 +475,6 @@
     <t>Share of population living further than 2km from a road</t>
   </si>
   <si>
-    <t>Road density</t>
-  </si>
-  <si>
-    <t>Normalized road density</t>
-  </si>
-  <si>
     <t>Share of population living in an area with low road density</t>
   </si>
   <si>
@@ -494,13 +485,25 @@
   </si>
   <si>
     <t>Share of population living in housing without access to improved toilet facilities</t>
+  </si>
+  <si>
+    <t>OpenStreetMap 2021</t>
+  </si>
+  <si>
+    <t>Length of road layers (except “track” and “unknown”)/ district area, OSM 2021</t>
+  </si>
+  <si>
+    <t>MinMax normalization, OSM 2021</t>
+  </si>
+  <si>
+    <t>Number of health facilities (ALHASAN, 2017) per 100,000 population (HRPD FB,2021)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -518,6 +521,20 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF201F1E"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -549,10 +566,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -851,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="D44" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1790,8 +1812,8 @@
       <c r="E48" t="s">
         <v>47</v>
       </c>
-      <c r="F48" s="2" t="s">
-        <v>147</v>
+      <c r="F48" s="5" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
@@ -1808,7 +1830,7 @@
         <v>48</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
@@ -1825,7 +1847,7 @@
         <v>49</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
@@ -1845,7 +1867,7 @@
         <v>50</v>
       </c>
       <c r="F51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
@@ -1865,10 +1887,10 @@
         <v>51</v>
       </c>
       <c r="F52" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -1876,13 +1898,13 @@
         <v>62</v>
       </c>
       <c r="D53" t="s">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="E53" t="s">
         <v>52</v>
       </c>
-      <c r="F53" s="2" t="s">
-        <v>152</v>
+      <c r="F53" s="3" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
@@ -1893,13 +1915,13 @@
         <v>62</v>
       </c>
       <c r="D54" t="s">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="E54" t="s">
         <v>53</v>
       </c>
-      <c r="F54" s="2" t="s">
-        <v>153</v>
+      <c r="F54" s="4" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
@@ -1919,7 +1941,7 @@
         <v>54</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
@@ -1939,7 +1961,7 @@
         <v>55</v>
       </c>
       <c r="F56" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
@@ -1959,7 +1981,7 @@
         <v>56</v>
       </c>
       <c r="F57" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
@@ -1979,7 +2001,7 @@
         <v>57</v>
       </c>
       <c r="F58" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
@@ -1999,7 +2021,7 @@
         <v>58</v>
       </c>
       <c r="F59" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
@@ -2019,7 +2041,7 @@
         <v>59</v>
       </c>
       <c r="F60" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.35">

--- a/legend_data.xlsx
+++ b/legend_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldbankgroup-my.sharepoint.com/personal/shaider7_worldbank_org/Documents/RShinyProjects/CCDR_Dashboard/CCDR-World-Bank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="196" documentId="13_ncr:1_{7F85CA17-6D6B-4DE8-98A7-1BD49A098296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28E28668-A145-4BC1-8BE4-0604662ED4A5}"/>
+  <xr:revisionPtr revIDLastSave="206" documentId="13_ncr:1_{7F85CA17-6D6B-4DE8-98A7-1BD49A098296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0341C707-7C12-4551-B62C-C8CBBC2A00EA}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="160">
   <si>
     <t>indicator</t>
   </si>
@@ -178,15 +178,6 @@
     <t>No proximity of road within 2km (PSLM 2019)</t>
   </si>
   <si>
-    <t>Road Density</t>
-  </si>
-  <si>
-    <t>Road density normalised</t>
-  </si>
-  <si>
-    <t>Share of population Living in Area with Low Road Density</t>
-  </si>
-  <si>
     <t>2019 Poverty Rates (PSLM 2019)</t>
   </si>
   <si>
@@ -497,6 +488,18 @@
   </si>
   <si>
     <t>Number of health facilities (ALHASAN, 2017) per 100,000 population (HRPD FB,2021)</t>
+  </si>
+  <si>
+    <t>(hectares)</t>
+  </si>
+  <si>
+    <t>Road Density (OpenStreetMap 2021)</t>
+  </si>
+  <si>
+    <t>Road density normalised (OpenStreetMap 2021)</t>
+  </si>
+  <si>
+    <t>Share of population Living in Area with Low Road Density (OpenStreetMap 2022)</t>
   </si>
 </sst>
 </file>
@@ -873,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D44" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53:E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -891,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
         <v>60</v>
       </c>
-      <c r="C1" t="s">
-        <v>63</v>
-      </c>
       <c r="D1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -911,19 +914,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -931,19 +934,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>156</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -951,19 +954,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>156</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -971,16 +974,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -988,19 +991,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -1008,19 +1011,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" t="s">
         <v>76</v>
       </c>
-      <c r="D7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E7" t="s">
-        <v>79</v>
-      </c>
       <c r="F7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -1028,19 +1031,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" t="s">
         <v>77</v>
       </c>
-      <c r="D8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E8" t="s">
-        <v>80</v>
-      </c>
       <c r="F8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -1048,19 +1051,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>156</v>
       </c>
       <c r="D9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -1068,19 +1071,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -1088,16 +1091,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -1105,19 +1108,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F12" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -1125,16 +1128,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -1142,19 +1145,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -1162,16 +1165,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F15" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -1179,19 +1182,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F16" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -1199,16 +1202,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F17" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -1216,19 +1219,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D18" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F18" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -1236,16 +1239,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E19" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F19" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -1253,16 +1256,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F20" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -1270,16 +1273,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E21" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F21" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
@@ -1287,19 +1290,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E22" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F22" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
@@ -1307,16 +1310,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D23" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E23" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F23" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
@@ -1324,19 +1327,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D24" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F24" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
@@ -1344,19 +1347,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E25" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F25" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
@@ -1364,19 +1367,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>156</v>
       </c>
       <c r="D26" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E26" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F26" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
@@ -1384,19 +1387,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D27" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E27" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F27" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
@@ -1404,19 +1407,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E28" t="s">
         <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
@@ -1424,19 +1427,19 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D29" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E29" t="s">
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
@@ -1444,19 +1447,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D30" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E30" t="s">
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
@@ -1464,19 +1467,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D31" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E31" t="s">
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
@@ -1484,19 +1487,19 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D32" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E32" t="s">
         <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
@@ -1504,19 +1507,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D33" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E33" t="s">
         <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
@@ -1524,19 +1527,19 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D34" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E34" t="s">
         <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
@@ -1544,19 +1547,19 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D35" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E35" t="s">
         <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
@@ -1564,19 +1567,19 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C36" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D36" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E36" t="s">
         <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
@@ -1584,19 +1587,19 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C37" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D37" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E37" t="s">
         <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
@@ -1604,19 +1607,19 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C38" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D38" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E38" t="s">
         <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
@@ -1624,19 +1627,19 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C39" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D39" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E39" t="s">
         <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
@@ -1644,19 +1647,19 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C40" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D40" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E40" t="s">
         <v>39</v>
       </c>
       <c r="F40" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
@@ -1664,19 +1667,19 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C41" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D41" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E41" t="s">
         <v>40</v>
       </c>
       <c r="F41" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
@@ -1684,19 +1687,19 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C42" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D42" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E42" t="s">
         <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
@@ -1704,19 +1707,19 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C43" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D43" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E43" t="s">
         <v>42</v>
       </c>
       <c r="F43" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
@@ -1724,19 +1727,19 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C44" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D44" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E44" t="s">
         <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
@@ -1744,19 +1747,19 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C45" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D45" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E45" t="s">
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
@@ -1764,19 +1767,19 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C46" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D46" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E46" t="s">
         <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
@@ -1784,19 +1787,19 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C47" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D47" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E47" t="s">
         <v>46</v>
       </c>
       <c r="F47" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
@@ -1804,16 +1807,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D48" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E48" t="s">
         <v>47</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
@@ -1821,16 +1824,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D49" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E49" t="s">
         <v>48</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
@@ -1838,16 +1841,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D50" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E50" t="s">
         <v>49</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
@@ -1855,19 +1858,19 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C51" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D51" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E51" t="s">
         <v>50</v>
       </c>
       <c r="F51" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
@@ -1875,173 +1878,173 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C52" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D52" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E52" t="s">
         <v>51</v>
       </c>
       <c r="F52" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>157</v>
       </c>
       <c r="B53" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D53" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E53" t="s">
-        <v>52</v>
+        <v>157</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>158</v>
       </c>
       <c r="B54" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D54" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E54" t="s">
-        <v>53</v>
+        <v>158</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>159</v>
       </c>
       <c r="B55" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D55" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E55" t="s">
-        <v>54</v>
+        <v>159</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B56" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D56" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E56" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F56" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B57" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D57" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E57" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F57" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B58" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D58" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E58" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F58" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B59" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C59" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D59" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E59" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F59" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C60" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D60" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E60" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F60" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.35">

--- a/legend_data.xlsx
+++ b/legend_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldbankgroup-my.sharepoint.com/personal/shaider7_worldbank_org/Documents/RShinyProjects/CCDR_Dashboard/CCDR-World-Bank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="206" documentId="13_ncr:1_{7F85CA17-6D6B-4DE8-98A7-1BD49A098296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0341C707-7C12-4551-B62C-C8CBBC2A00EA}"/>
+  <xr:revisionPtr revIDLastSave="217" documentId="13_ncr:1_{7F85CA17-6D6B-4DE8-98A7-1BD49A098296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38E3967E-9406-40B3-88FE-EE831BA9C708}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="165">
   <si>
     <t>indicator</t>
   </si>
@@ -500,6 +500,21 @@
   </si>
   <si>
     <t>Share of population Living in Area with Low Road Density (OpenStreetMap 2022)</t>
+  </si>
+  <si>
+    <t>Mean Relative Wealth Index</t>
+  </si>
+  <si>
+    <t>Majority Relative Wealth Index</t>
+  </si>
+  <si>
+    <t>RWI_rwi_mean</t>
+  </si>
+  <si>
+    <t>RWI_rwi_majority</t>
+  </si>
+  <si>
+    <t>Pakistan Poverty Team - World Bank</t>
   </si>
 </sst>
 </file>
@@ -876,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53:E55"/>
+    <sheetView tabSelected="1" topLeftCell="E46" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2047,6 +2062,40 @@
         <v>151</v>
       </c>
     </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>162</v>
+      </c>
+      <c r="B61" t="s">
+        <v>59</v>
+      </c>
+      <c r="D61" t="s">
+        <v>164</v>
+      </c>
+      <c r="E61" t="s">
+        <v>160</v>
+      </c>
+      <c r="F61" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>163</v>
+      </c>
+      <c r="B62" t="s">
+        <v>59</v>
+      </c>
+      <c r="D62" t="s">
+        <v>164</v>
+      </c>
+      <c r="E62" t="s">
+        <v>161</v>
+      </c>
+      <c r="F62" t="s">
+        <v>161</v>
+      </c>
+    </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B74" s="1"/>
     </row>
